--- a/product-definitions/spreadsheet/full-troposphere-temperature-profiles.xlsx
+++ b/product-definitions/spreadsheet/full-troposphere-temperature-profiles.xlsx
@@ -12,14 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="90">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -29,27 +44,12 @@
     <t>Proposed name</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>example value</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -59,12 +59,6 @@
     <t>dimension</t>
   </si>
   <si>
-    <t>time, index</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>standard_name</t>
   </si>
   <si>
@@ -108,6 +102,9 @@
   </si>
   <si>
     <t>air_temperature</t>
+  </si>
+  <si>
+    <t>time, altitude</t>
   </si>
   <si>
     <t>K</t>
@@ -327,14 +324,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -356,25 +353,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -382,20 +379,23 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -403,34 +403,34 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -466,72 +466,72 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1"/>
@@ -1556,30 +1556,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="B3" t="s">
@@ -1593,37 +1593,37 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8">
         <v>-1.0E20</v>
@@ -1631,44 +1631,44 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="B10" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="B11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="B12" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
@@ -1676,7 +1676,7 @@
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="13"/>
     </row>
@@ -1692,72 +1692,72 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>15</v>
+      <c r="C16" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15">
         <v>-1.0E20</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="12.0" customHeight="1">
@@ -1765,7 +1765,7 @@
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1779,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1791,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1800,9 +1800,9 @@
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="16">
+        <v>2</v>
+      </c>
+      <c r="C29" s="17">
         <v>1.0</v>
       </c>
       <c r="D29" s="9"/>
@@ -1812,7 +1812,7 @@
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1822,10 +1822,10 @@
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1834,10 +1834,10 @@
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -1845,15 +1845,15 @@
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="9"/>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="9"/>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1879,7 +1879,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1891,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1900,9 +1900,9 @@
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="16">
+        <v>2</v>
+      </c>
+      <c r="C38" s="17">
         <v>1.0</v>
       </c>
       <c r="D38" s="9"/>
@@ -1912,7 +1912,7 @@
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1922,22 +1922,22 @@
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="D40" s="21"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -1945,14 +1945,14 @@
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="9"/>
-      <c r="B42" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
+      <c r="B42" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="9"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
@@ -1965,7 +1965,7 @@
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1979,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -1991,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -2000,9 +2000,9 @@
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="16">
+        <v>2</v>
+      </c>
+      <c r="C47" s="17">
         <v>1.0</v>
       </c>
       <c r="D47" s="9"/>
@@ -2012,7 +2012,7 @@
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2022,10 +2022,10 @@
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -2034,10 +2034,10 @@
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -2045,35 +2045,35 @@
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="9"/>
-      <c r="B51" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="B51" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="9"/>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="21"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="9"/>
-      <c r="C53" s="21"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>38</v>
+      <c r="C54" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
@@ -2081,72 +2081,72 @@
       <c r="B55" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>39</v>
+      <c r="C55" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="22">
+        <v>2</v>
+      </c>
+      <c r="C56" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="9"/>
-      <c r="B60" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>54</v>
+      <c r="B60" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="22"/>
+      <c r="C61" s="23"/>
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="21"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>38</v>
+      <c r="C63" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="12.0" customHeight="1">
@@ -2154,72 +2154,72 @@
       <c r="B64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>39</v>
+      <c r="C64" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="22">
+        <v>2</v>
+      </c>
+      <c r="C65" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C66" s="23"/>
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="A69" s="9"/>
-      <c r="B69" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>57</v>
+      <c r="B69" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="21"/>
+      <c r="C70" s="22"/>
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="21"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>38</v>
+      <c r="C72" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="12.0" customHeight="1">
@@ -2227,72 +2227,72 @@
       <c r="B73" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>39</v>
+      <c r="C73" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="22">
+        <v>2</v>
+      </c>
+      <c r="C74" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C75" s="23"/>
     </row>
     <row r="76" ht="12.0" customHeight="1">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="9"/>
-      <c r="B78" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>57</v>
+      <c r="B78" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="21"/>
+      <c r="C79" s="22"/>
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="9"/>
-      <c r="C80" s="21"/>
+      <c r="C80" s="22"/>
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>38</v>
+      <c r="C81" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="82" ht="12.0" customHeight="1">
@@ -2300,72 +2300,72 @@
       <c r="B82" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="21" t="s">
-        <v>39</v>
+      <c r="C82" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="22">
+        <v>2</v>
+      </c>
+      <c r="C83" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C84" s="23"/>
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="A87" s="9"/>
-      <c r="B87" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>57</v>
+      <c r="B87" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="21"/>
+      <c r="C88" s="22"/>
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B89" s="9"/>
-      <c r="C89" s="21"/>
+      <c r="C89" s="22"/>
     </row>
     <row r="90" ht="12.0" customHeight="1">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="21" t="s">
-        <v>38</v>
+      <c r="C90" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="12.0" customHeight="1">
@@ -2373,72 +2373,72 @@
       <c r="B91" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="21" t="s">
-        <v>39</v>
+      <c r="C91" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="12.0" customHeight="1">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="22">
+        <v>2</v>
+      </c>
+      <c r="C92" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="93" ht="12.0" customHeight="1">
       <c r="A93" s="9"/>
       <c r="B93" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C93" s="23"/>
     </row>
     <row r="94" ht="12.0" customHeight="1">
       <c r="A94" s="9"/>
       <c r="B94" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>63</v>
+        <v>16</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="12.0" customHeight="1">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
       <c r="A96" s="9"/>
-      <c r="B96" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>57</v>
+      <c r="B96" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="97" ht="12.0" customHeight="1">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
-      <c r="C97" s="21"/>
+      <c r="C97" s="22"/>
     </row>
     <row r="98" ht="12.0" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B98" s="9"/>
-      <c r="C98" s="21"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="99" ht="12.0" customHeight="1">
       <c r="A99" s="9"/>
       <c r="B99" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="21" t="s">
-        <v>38</v>
+      <c r="C99" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="12.0" customHeight="1">
@@ -2446,72 +2446,72 @@
       <c r="B100" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="21" t="s">
-        <v>39</v>
+      <c r="C100" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="101" ht="12.0" customHeight="1">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="22">
+        <v>2</v>
+      </c>
+      <c r="C101" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="102" ht="12.0" customHeight="1">
       <c r="A102" s="9"/>
       <c r="B102" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C102" s="23"/>
     </row>
     <row r="103" ht="12.0" customHeight="1">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="104" ht="12.0" customHeight="1">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" ht="12.0" customHeight="1">
       <c r="A105" s="9"/>
-      <c r="B105" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>57</v>
+      <c r="B105" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="106" ht="12.0" customHeight="1">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
-      <c r="C106" s="21"/>
+      <c r="C106" s="22"/>
     </row>
     <row r="107" ht="12.0" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B107" s="9"/>
-      <c r="C107" s="21"/>
+      <c r="C107" s="22"/>
     </row>
     <row r="108" ht="12.0" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="21" t="s">
-        <v>38</v>
+      <c r="C108" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="109" ht="12.0" customHeight="1">
@@ -2519,72 +2519,72 @@
       <c r="B109" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="21" t="s">
-        <v>39</v>
+      <c r="C109" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="110" ht="12.0" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="22">
+        <v>2</v>
+      </c>
+      <c r="C110" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="111" ht="12.0" customHeight="1">
       <c r="A111" s="9"/>
       <c r="B111" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C111" s="23"/>
     </row>
     <row r="112" ht="12.0" customHeight="1">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>67</v>
+        <v>16</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="113" ht="12.0" customHeight="1">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" ht="12.0" customHeight="1">
       <c r="A114" s="9"/>
-      <c r="B114" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>57</v>
+      <c r="B114" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="115" ht="12.0" customHeight="1">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
-      <c r="C115" s="21"/>
+      <c r="C115" s="22"/>
     </row>
     <row r="116" ht="12.0" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B116" s="9"/>
-      <c r="C116" s="21"/>
+      <c r="C116" s="22"/>
     </row>
     <row r="117" ht="12.0" customHeight="1">
       <c r="A117" s="9"/>
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="21" t="s">
-        <v>69</v>
+      <c r="C117" s="22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="118" ht="12.0" customHeight="1">
@@ -2592,72 +2592,72 @@
       <c r="B118" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="21" t="s">
-        <v>39</v>
+      <c r="C118" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="119" ht="12.0" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="22">
+        <v>2</v>
+      </c>
+      <c r="C119" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="120" ht="12.0" customHeight="1">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C120" s="23"/>
     </row>
     <row r="121" ht="12.0" customHeight="1">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>70</v>
+        <v>16</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="122" ht="12.0" customHeight="1">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
       <c r="A123" s="9"/>
-      <c r="B123" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>57</v>
+      <c r="B123" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="124" ht="12.0" customHeight="1">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
-      <c r="C124" s="21"/>
+      <c r="C124" s="22"/>
     </row>
     <row r="125" ht="12.0" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B125" s="9"/>
-      <c r="C125" s="21"/>
+      <c r="C125" s="22"/>
     </row>
     <row r="126" ht="12.0" customHeight="1">
       <c r="A126" s="9"/>
       <c r="B126" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C126" s="21" t="s">
-        <v>38</v>
+      <c r="C126" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="127" ht="12.0" customHeight="1">
@@ -2665,72 +2665,72 @@
       <c r="B127" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="21" t="s">
-        <v>39</v>
+      <c r="C127" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="128" ht="12.0" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" s="22">
+        <v>2</v>
+      </c>
+      <c r="C128" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="129" ht="12.0" customHeight="1">
       <c r="A129" s="9"/>
       <c r="B129" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C129" s="23"/>
     </row>
     <row r="130" ht="12.0" customHeight="1">
       <c r="A130" s="9"/>
       <c r="B130" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="131" ht="12.0" customHeight="1">
       <c r="A131" s="9"/>
       <c r="B131" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" ht="12.0" customHeight="1">
       <c r="A132" s="9"/>
-      <c r="B132" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>57</v>
+      <c r="B132" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="133" ht="12.0" customHeight="1">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
-      <c r="C133" s="21"/>
+      <c r="C133" s="22"/>
     </row>
     <row r="134" ht="12.0" customHeight="1">
       <c r="A134" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B134" s="9"/>
-      <c r="C134" s="21"/>
+      <c r="C134" s="22"/>
     </row>
     <row r="135" ht="12.0" customHeight="1">
       <c r="A135" s="9"/>
       <c r="B135" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C135" s="21" t="s">
-        <v>38</v>
+      <c r="C135" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="136" ht="12.0" customHeight="1">
@@ -2738,72 +2738,72 @@
       <c r="B136" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="21" t="s">
-        <v>39</v>
+      <c r="C136" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="137" ht="12.0" customHeight="1">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="22">
+        <v>2</v>
+      </c>
+      <c r="C137" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="138" ht="12.0" customHeight="1">
       <c r="A138" s="9"/>
       <c r="B138" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C138" s="23"/>
     </row>
     <row r="139" ht="12.0" customHeight="1">
       <c r="A139" s="9"/>
       <c r="B139" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
       <c r="A140" s="9"/>
       <c r="B140" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" ht="12.0" customHeight="1">
       <c r="A141" s="9"/>
-      <c r="B141" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>57</v>
+      <c r="B141" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="142" ht="12.0" customHeight="1">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
-      <c r="C142" s="21"/>
+      <c r="C142" s="22"/>
     </row>
     <row r="143" ht="12.0" customHeight="1">
       <c r="A143" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B143" s="9"/>
-      <c r="C143" s="21"/>
+      <c r="C143" s="22"/>
     </row>
     <row r="144" ht="12.0" customHeight="1">
       <c r="A144" s="9"/>
       <c r="B144" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C144" s="21" t="s">
-        <v>38</v>
+      <c r="C144" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="145" ht="12.0" customHeight="1">
@@ -2811,72 +2811,72 @@
       <c r="B145" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C145" s="21" t="s">
-        <v>39</v>
+      <c r="C145" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="146" ht="12.0" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="22">
+        <v>2</v>
+      </c>
+      <c r="C146" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="147" ht="12.0" customHeight="1">
       <c r="A147" s="9"/>
       <c r="B147" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C147" s="23"/>
     </row>
     <row r="148" ht="12.0" customHeight="1">
       <c r="A148" s="9"/>
       <c r="B148" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>76</v>
+        <v>16</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" ht="12.0" customHeight="1">
       <c r="A150" s="9"/>
-      <c r="B150" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>57</v>
+      <c r="B150" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="151" ht="12.0" customHeight="1">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
-      <c r="C151" s="21"/>
+      <c r="C151" s="22"/>
     </row>
     <row r="152" ht="12.0" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B152" s="9"/>
-      <c r="C152" s="21"/>
+      <c r="C152" s="22"/>
     </row>
     <row r="153" ht="12.0" customHeight="1">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="21" t="s">
-        <v>38</v>
+      <c r="C153" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="154" ht="12.0" customHeight="1">
@@ -2884,72 +2884,72 @@
       <c r="B154" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="21" t="s">
-        <v>39</v>
+      <c r="C154" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="155" ht="12.0" customHeight="1">
       <c r="A155" s="9"/>
       <c r="B155" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" s="22">
+        <v>2</v>
+      </c>
+      <c r="C155" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="156" ht="12.0" customHeight="1">
       <c r="A156" s="9"/>
       <c r="B156" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C156" s="23"/>
     </row>
     <row r="157" ht="12.0" customHeight="1">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C157" s="24" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="158" ht="12.0" customHeight="1">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" ht="12.0" customHeight="1">
       <c r="A159" s="9"/>
-      <c r="B159" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>57</v>
+      <c r="B159" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="160" ht="12.0" customHeight="1">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
-      <c r="C160" s="21"/>
+      <c r="C160" s="22"/>
     </row>
     <row r="161" ht="12.0" customHeight="1">
       <c r="A161" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B161" s="9"/>
-      <c r="C161" s="21"/>
+      <c r="C161" s="22"/>
     </row>
     <row r="162" ht="12.0" customHeight="1">
       <c r="A162" s="9"/>
       <c r="B162" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="21" t="s">
-        <v>38</v>
+      <c r="C162" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="163" ht="12.0" customHeight="1">
@@ -2957,72 +2957,72 @@
       <c r="B163" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="21" t="s">
-        <v>39</v>
+      <c r="C163" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="164" ht="12.0" customHeight="1">
       <c r="A164" s="9"/>
       <c r="B164" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" s="22">
+        <v>2</v>
+      </c>
+      <c r="C164" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="165" ht="12.0" customHeight="1">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C165" s="23"/>
     </row>
     <row r="166" ht="12.0" customHeight="1">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C166" s="24" t="s">
-        <v>80</v>
+        <v>16</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="167" ht="12.0" customHeight="1">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168" ht="12.0" customHeight="1">
       <c r="A168" s="9"/>
-      <c r="B168" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>57</v>
+      <c r="B168" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="169" ht="12.0" customHeight="1">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
-      <c r="C169" s="21"/>
+      <c r="C169" s="22"/>
     </row>
     <row r="170" ht="12.0" customHeight="1">
       <c r="A170" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B170" s="9"/>
-      <c r="C170" s="21"/>
+      <c r="C170" s="22"/>
     </row>
     <row r="171" ht="12.0" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C171" s="21" t="s">
-        <v>69</v>
+      <c r="C171" s="22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="172" ht="12.0" customHeight="1">
@@ -3030,72 +3030,72 @@
       <c r="B172" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="21" t="s">
-        <v>39</v>
+      <c r="C172" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="173" ht="12.0" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C173" s="22">
+        <v>2</v>
+      </c>
+      <c r="C173" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="174" ht="12.0" customHeight="1">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C174" s="23"/>
     </row>
     <row r="175" ht="12.0" customHeight="1">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" s="24" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="C175" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="176" ht="12.0" customHeight="1">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" ht="12.0" customHeight="1">
       <c r="A177" s="9"/>
-      <c r="B177" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>57</v>
+      <c r="B177" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="178" ht="12.0" customHeight="1">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
-      <c r="C178" s="21"/>
+      <c r="C178" s="22"/>
     </row>
     <row r="179" ht="12.0" customHeight="1">
       <c r="A179" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B179" s="9"/>
-      <c r="C179" s="21"/>
+      <c r="C179" s="22"/>
     </row>
     <row r="180" ht="12.0" customHeight="1">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C180" s="21" t="s">
-        <v>38</v>
+      <c r="C180" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="181" ht="12.0" customHeight="1">
@@ -3103,72 +3103,72 @@
       <c r="B181" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C181" s="21" t="s">
-        <v>39</v>
+      <c r="C181" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="182" ht="12.0" customHeight="1">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" s="22">
+        <v>2</v>
+      </c>
+      <c r="C182" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="183" ht="12.0" customHeight="1">
       <c r="A183" s="9"/>
       <c r="B183" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C183" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C183" s="23"/>
     </row>
     <row r="184" ht="12.0" customHeight="1">
       <c r="A184" s="9"/>
       <c r="B184" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C184" s="24" t="s">
-        <v>84</v>
+        <v>16</v>
+      </c>
+      <c r="C184" s="25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="185" ht="12.0" customHeight="1">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" ht="12.0" customHeight="1">
       <c r="A186" s="9"/>
-      <c r="B186" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>57</v>
+      <c r="B186" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="187" ht="12.0" customHeight="1">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
-      <c r="C187" s="21"/>
+      <c r="C187" s="22"/>
     </row>
     <row r="188" ht="12.0" customHeight="1">
       <c r="A188" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B188" s="9"/>
-      <c r="C188" s="21"/>
+      <c r="C188" s="22"/>
     </row>
     <row r="189" ht="12.0" customHeight="1">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C189" s="21" t="s">
-        <v>38</v>
+      <c r="C189" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="190" ht="12.0" customHeight="1">
@@ -3176,72 +3176,72 @@
       <c r="B190" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="21" t="s">
-        <v>39</v>
+      <c r="C190" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="191" ht="12.0" customHeight="1">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" s="22">
+        <v>2</v>
+      </c>
+      <c r="C191" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="192" ht="12.0" customHeight="1">
       <c r="A192" s="9"/>
       <c r="B192" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C192" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C192" s="23"/>
     </row>
     <row r="193" ht="12.0" customHeight="1">
       <c r="A193" s="9"/>
       <c r="B193" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C193" s="24" t="s">
-        <v>86</v>
+        <v>16</v>
+      </c>
+      <c r="C193" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="194" ht="12.0" customHeight="1">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="195" ht="12.0" customHeight="1">
       <c r="A195" s="9"/>
-      <c r="B195" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C195" s="23" t="s">
-        <v>88</v>
+      <c r="B195" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="196" ht="12.0" customHeight="1">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
-      <c r="C196" s="21"/>
+      <c r="C196" s="22"/>
     </row>
     <row r="197" ht="12.0" customHeight="1">
       <c r="A197" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B197" s="9"/>
-      <c r="C197" s="21"/>
+      <c r="C197" s="22"/>
     </row>
     <row r="198" ht="12.0" customHeight="1">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C198" s="21" t="s">
-        <v>38</v>
+      <c r="C198" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="199" ht="12.0" customHeight="1">
@@ -3249,57 +3249,57 @@
       <c r="B199" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C199" s="21" t="s">
-        <v>39</v>
+      <c r="C199" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="200" ht="12.0" customHeight="1">
       <c r="A200" s="9"/>
       <c r="B200" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C200" s="22">
+        <v>2</v>
+      </c>
+      <c r="C200" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="201" ht="12.0" customHeight="1">
       <c r="A201" s="9"/>
       <c r="B201" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C201" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C201" s="23"/>
     </row>
     <row r="202" ht="12.0" customHeight="1">
       <c r="A202" s="9"/>
       <c r="B202" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="C202" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="203" ht="12.0" customHeight="1">
       <c r="A203" s="9"/>
       <c r="B203" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="204" ht="12.0" customHeight="1">
       <c r="A204" s="9"/>
-      <c r="B204" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C204" s="23" t="s">
-        <v>88</v>
+      <c r="B204" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="205" ht="12.0" customHeight="1">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
-      <c r="C205" s="21"/>
+      <c r="C205" s="22"/>
     </row>
     <row r="206" ht="12.0" customHeight="1">
       <c r="C206" s="13"/>
